--- a/existing_matrix.xlsx
+++ b/existing_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gto_n\Documents\ИТМО\Научкаъ\masters_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49A115C-D05B-44E9-A89F-DDD184B68CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F30E4-6B84-4275-8BD9-EAD0775032BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A116129D-323D-4FDC-ACD1-8500205F748F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -76,6 +77,12 @@
   </si>
   <si>
     <t>возможно 1.01 везде потенциальный бэд</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
 </sst>
 </file>
@@ -135,6 +142,962 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frame</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> distribution of PES</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-614C-4C62-BE8B-D72C3B6A1EC8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-614C-4C62-BE8B-D72C3B6A1EC8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12265463692038495"/>
+                  <c:y val="4.9709463400408285E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{336DC89C-DF42-4D62-A476-C25DBBFA53A1}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-614C-4C62-BE8B-D72C3B6A1EC8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12612489063867016"/>
+                  <c:y val="-4.0356153397491983E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-614C-4C62-BE8B-D72C3B6A1EC8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$M$2:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Good</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-614C-4C62-BE8B-D72C3B6A1EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C463E0-784C-45B0-BF97-9219FEE707E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9621AA8B-2CCF-4543-9B9F-A24C7BF6EEAC}">
-  <dimension ref="A1:J602"/>
+  <dimension ref="A1:N862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="M605" sqref="M605"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +1414,7 @@
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,10 +1441,10 @@
       </c>
       <c r="I1">
         <f>SUM(I2:I3)</f>
-        <v>601</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44652</v>
       </c>
@@ -509,14 +1472,21 @@
       </c>
       <c r="I2">
         <f>COUNTIF(C:C, "good")</f>
-        <v>429</v>
+        <v>688</v>
       </c>
       <c r="J2">
         <f>COUNTIF(F:F, "good")</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIF(F:F, "good")</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44652</v>
       </c>
@@ -541,19 +1511,26 @@
       </c>
       <c r="I3">
         <f>COUNTIF(C:C,"bad")</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J3">
         <f>COUNTIF(F:F,"bad")</f>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIF(F:F,"bad")</f>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44652</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
+        <f>D4+$G$2*(E4-2)</f>
         <v>0.43576388888888934</v>
       </c>
       <c r="C4" t="s">
@@ -573,14 +1550,14 @@
       </c>
       <c r="I4">
         <f>I2/I3</f>
-        <v>2.4941860465116279</v>
+        <v>3.9768786127167628</v>
       </c>
       <c r="J4">
         <f>J2/J3</f>
-        <v>0.22653061224489796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.75356415478615069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -601,7 +1578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44652</v>
       </c>
@@ -622,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44652</v>
       </c>
@@ -643,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44652</v>
       </c>
@@ -664,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44652</v>
       </c>
@@ -685,7 +1662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44652</v>
       </c>
@@ -706,7 +1683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44652</v>
       </c>
@@ -727,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44652</v>
       </c>
@@ -748,7 +1725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44652</v>
       </c>
@@ -769,7 +1746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44652</v>
       </c>
@@ -790,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44652</v>
       </c>
@@ -811,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44652</v>
       </c>
@@ -12642,7 +13619,7 @@
         <v>44656</v>
       </c>
       <c r="B579" s="2">
-        <f t="shared" ref="B579:B603" si="9">D579+$G$2*(E579-2)</f>
+        <f t="shared" ref="B579:B642" si="9">D579+$G$2*(E579-2)</f>
         <v>0.50208333333333333</v>
       </c>
       <c r="C579" t="s">
@@ -13141,8 +14118,5469 @@
         <v>7</v>
       </c>
     </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B603" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="C603" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E603" s="3">
+        <v>2</v>
+      </c>
+      <c r="F603" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B604" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41348379629629628</v>
+      </c>
+      <c r="C604" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E604" s="3">
+        <v>7</v>
+      </c>
+      <c r="F604" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B605" s="2">
+        <f t="shared" si="9"/>
+        <v>0.4138310185185185</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E605" s="3">
+        <v>10</v>
+      </c>
+      <c r="F605" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B606" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41429398148148144</v>
+      </c>
+      <c r="C606" t="s">
+        <v>6</v>
+      </c>
+      <c r="D606" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E606" s="3">
+        <v>14</v>
+      </c>
+      <c r="F606" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B607" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41464120370370366</v>
+      </c>
+      <c r="C607" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E607" s="3">
+        <v>17</v>
+      </c>
+      <c r="F607" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B608" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41498842592592589</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E608" s="3">
+        <v>20</v>
+      </c>
+      <c r="F608" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B609" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41533564814814811</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E609" s="3">
+        <v>23</v>
+      </c>
+      <c r="F609" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B610" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41591435185185183</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E610" s="3">
+        <v>28</v>
+      </c>
+      <c r="F610" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B611" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41637731481481477</v>
+      </c>
+      <c r="C611" t="s">
+        <v>6</v>
+      </c>
+      <c r="D611" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E611" s="3">
+        <v>32</v>
+      </c>
+      <c r="F611" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B612" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41695601851851849</v>
+      </c>
+      <c r="C612" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E612" s="3">
+        <v>37</v>
+      </c>
+      <c r="F612" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B613" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41730324074074071</v>
+      </c>
+      <c r="C613" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E613" s="3">
+        <v>40</v>
+      </c>
+      <c r="F613" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B614" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41765046296296293</v>
+      </c>
+      <c r="C614" t="s">
+        <v>6</v>
+      </c>
+      <c r="D614" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E614" s="3">
+        <v>43</v>
+      </c>
+      <c r="F614" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B615" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41811342592592587</v>
+      </c>
+      <c r="C615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E615" s="3">
+        <v>47</v>
+      </c>
+      <c r="F615" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B616" s="2">
+        <f t="shared" si="9"/>
+        <v>0.4184606481481481</v>
+      </c>
+      <c r="C616" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E616" s="3">
+        <v>50</v>
+      </c>
+      <c r="F616" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B617" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41892361111111109</v>
+      </c>
+      <c r="C617" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E617" s="3">
+        <v>54</v>
+      </c>
+      <c r="F617" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B618" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41950231481481476</v>
+      </c>
+      <c r="C618" t="s">
+        <v>6</v>
+      </c>
+      <c r="D618" s="2">
+        <v>0.41290509259259256</v>
+      </c>
+      <c r="E618" s="3">
+        <v>59</v>
+      </c>
+      <c r="F618" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B619" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43399305555555556</v>
+      </c>
+      <c r="C619" t="s">
+        <v>6</v>
+      </c>
+      <c r="D619" s="2">
+        <v>0.43376157407407406</v>
+      </c>
+      <c r="E619" s="3">
+        <v>4</v>
+      </c>
+      <c r="F619" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B620" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43434027777777778</v>
+      </c>
+      <c r="C620" t="s">
+        <v>6</v>
+      </c>
+      <c r="D620" s="2">
+        <v>0.43376157407407406</v>
+      </c>
+      <c r="E620" s="3">
+        <v>7</v>
+      </c>
+      <c r="F620" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B621" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43468749999999995</v>
+      </c>
+      <c r="C621" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E621" s="3">
+        <v>10</v>
+      </c>
+      <c r="F621" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B622" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43503472222222217</v>
+      </c>
+      <c r="C622" t="s">
+        <v>6</v>
+      </c>
+      <c r="D622" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E622" s="3">
+        <v>13</v>
+      </c>
+      <c r="F622" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B623" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43549768518518511</v>
+      </c>
+      <c r="C623" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E623" s="3">
+        <v>17</v>
+      </c>
+      <c r="F623" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B624" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43584490740740733</v>
+      </c>
+      <c r="C624" t="s">
+        <v>6</v>
+      </c>
+      <c r="D624" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E624" s="3">
+        <v>20</v>
+      </c>
+      <c r="F624" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B625" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43630787037037028</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E625" s="3">
+        <v>24</v>
+      </c>
+      <c r="F625" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B626" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43677083333333327</v>
+      </c>
+      <c r="C626" t="s">
+        <v>6</v>
+      </c>
+      <c r="D626" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E626" s="3">
+        <v>28</v>
+      </c>
+      <c r="F626" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B627" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43723379629629622</v>
+      </c>
+      <c r="C627" t="s">
+        <v>6</v>
+      </c>
+      <c r="D627" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E627" s="3">
+        <v>32</v>
+      </c>
+      <c r="F627" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B628" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43769675925925922</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E628" s="3">
+        <v>36</v>
+      </c>
+      <c r="F628" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B629" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43804398148148144</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E629" s="3">
+        <v>39</v>
+      </c>
+      <c r="F629" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B630" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43839120370370366</v>
+      </c>
+      <c r="C630" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E630" s="3">
+        <v>42</v>
+      </c>
+      <c r="F630" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B631" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43873842592592588</v>
+      </c>
+      <c r="C631" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E631" s="3">
+        <v>45</v>
+      </c>
+      <c r="F631" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B632" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43920138888888882</v>
+      </c>
+      <c r="C632" t="s">
+        <v>6</v>
+      </c>
+      <c r="D632" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E632" s="3">
+        <v>49</v>
+      </c>
+      <c r="F632" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B633" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43954861111111104</v>
+      </c>
+      <c r="C633" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E633" s="3">
+        <v>52</v>
+      </c>
+      <c r="F633" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B634" s="2">
+        <f t="shared" si="9"/>
+        <v>0.44035879629629621</v>
+      </c>
+      <c r="C634" t="s">
+        <v>6</v>
+      </c>
+      <c r="D634" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E634" s="3">
+        <v>59</v>
+      </c>
+      <c r="F634" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B635" s="2">
+        <f t="shared" si="9"/>
+        <v>0.44070601851851843</v>
+      </c>
+      <c r="C635" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635" s="2">
+        <v>0.43376157407407401</v>
+      </c>
+      <c r="E635" s="3">
+        <v>62</v>
+      </c>
+      <c r="F635" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B636" s="2">
+        <f t="shared" si="9"/>
+        <v>0.44858796296296299</v>
+      </c>
+      <c r="C636" t="s">
+        <v>6</v>
+      </c>
+      <c r="D636" s="2">
+        <v>0.44766203703703705</v>
+      </c>
+      <c r="E636" s="3">
+        <v>10</v>
+      </c>
+      <c r="F636" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B637" s="2">
+        <f t="shared" si="9"/>
+        <v>0.44905092592592594</v>
+      </c>
+      <c r="C637" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637" s="2">
+        <v>0.44766203703703705</v>
+      </c>
+      <c r="E637" s="3">
+        <v>14</v>
+      </c>
+      <c r="F637" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B638" s="2">
+        <f t="shared" si="9"/>
+        <v>0.44939814814814816</v>
+      </c>
+      <c r="C638" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638" s="2">
+        <v>0.44766203703703705</v>
+      </c>
+      <c r="E638" s="3">
+        <v>17</v>
+      </c>
+      <c r="F638" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B639" s="2">
+        <f t="shared" si="9"/>
+        <v>0.44974537037037032</v>
+      </c>
+      <c r="C639" t="s">
+        <v>6</v>
+      </c>
+      <c r="D639" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E639" s="3">
+        <v>20</v>
+      </c>
+      <c r="F639" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B640" s="2">
+        <f t="shared" si="9"/>
+        <v>0.45009259259259254</v>
+      </c>
+      <c r="C640" t="s">
+        <v>6</v>
+      </c>
+      <c r="D640" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E640" s="3">
+        <v>23</v>
+      </c>
+      <c r="F640" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B641" s="2">
+        <f t="shared" si="9"/>
+        <v>0.45136574074074071</v>
+      </c>
+      <c r="C641" t="s">
+        <v>6</v>
+      </c>
+      <c r="D641" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E641" s="3">
+        <v>34</v>
+      </c>
+      <c r="F641" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B642" s="2">
+        <f t="shared" si="9"/>
+        <v>0.45182870370370365</v>
+      </c>
+      <c r="C642" t="s">
+        <v>6</v>
+      </c>
+      <c r="D642" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E642" s="3">
+        <v>38</v>
+      </c>
+      <c r="F642" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B643" s="2">
+        <f t="shared" ref="B643:B706" si="10">D643+$G$2*(E643-2)</f>
+        <v>0.45229166666666665</v>
+      </c>
+      <c r="C643" t="s">
+        <v>6</v>
+      </c>
+      <c r="D643" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E643" s="3">
+        <v>42</v>
+      </c>
+      <c r="F643" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B644" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45263888888888887</v>
+      </c>
+      <c r="C644" t="s">
+        <v>6</v>
+      </c>
+      <c r="D644" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E644" s="3">
+        <v>45</v>
+      </c>
+      <c r="F644" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B645" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45298611111111109</v>
+      </c>
+      <c r="C645" t="s">
+        <v>6</v>
+      </c>
+      <c r="D645" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E645" s="3">
+        <v>48</v>
+      </c>
+      <c r="F645" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B646" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="C646" t="s">
+        <v>6</v>
+      </c>
+      <c r="D646" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E646" s="3">
+        <v>51</v>
+      </c>
+      <c r="F646" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B647" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45379629629629625</v>
+      </c>
+      <c r="C647" t="s">
+        <v>7</v>
+      </c>
+      <c r="D647" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E647" s="3">
+        <v>55</v>
+      </c>
+      <c r="F647" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B648" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45414351851851847</v>
+      </c>
+      <c r="C648" t="s">
+        <v>6</v>
+      </c>
+      <c r="D648" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E648" s="3">
+        <v>58</v>
+      </c>
+      <c r="F648" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B649" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4544907407407407</v>
+      </c>
+      <c r="C649" t="s">
+        <v>6</v>
+      </c>
+      <c r="D649" s="2">
+        <v>0.447662037037037</v>
+      </c>
+      <c r="E649" s="3">
+        <v>61</v>
+      </c>
+      <c r="F649" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B650" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4685185185185185</v>
+      </c>
+      <c r="C650" t="s">
+        <v>6</v>
+      </c>
+      <c r="D650" s="2">
+        <v>0.4685185185185185</v>
+      </c>
+      <c r="E650" s="3">
+        <v>2</v>
+      </c>
+      <c r="F650" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B651" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="C651" t="s">
+        <v>6</v>
+      </c>
+      <c r="D651" s="2">
+        <v>0.4685185185185185</v>
+      </c>
+      <c r="E651" s="3">
+        <v>22</v>
+      </c>
+      <c r="F651" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B652" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47118055555555605</v>
+      </c>
+      <c r="C652" t="s">
+        <v>6</v>
+      </c>
+      <c r="D652" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E652" s="3">
+        <v>25</v>
+      </c>
+      <c r="F652" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B653" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47141203703703755</v>
+      </c>
+      <c r="C653" t="s">
+        <v>6</v>
+      </c>
+      <c r="D653" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E653" s="3">
+        <v>27</v>
+      </c>
+      <c r="F653" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B654" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47199074074074121</v>
+      </c>
+      <c r="C654" t="s">
+        <v>6</v>
+      </c>
+      <c r="D654" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E654" s="3">
+        <v>32</v>
+      </c>
+      <c r="F654" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B655" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47222222222222271</v>
+      </c>
+      <c r="C655" t="s">
+        <v>6</v>
+      </c>
+      <c r="D655" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E655" s="3">
+        <v>34</v>
+      </c>
+      <c r="F655" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B656" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47268518518518565</v>
+      </c>
+      <c r="C656" t="s">
+        <v>6</v>
+      </c>
+      <c r="D656" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E656" s="3">
+        <v>38</v>
+      </c>
+      <c r="F656" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B657" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47303240740740787</v>
+      </c>
+      <c r="C657" t="s">
+        <v>6</v>
+      </c>
+      <c r="D657" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E657" s="3">
+        <v>41</v>
+      </c>
+      <c r="F657" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B658" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47349537037037087</v>
+      </c>
+      <c r="C658" t="s">
+        <v>6</v>
+      </c>
+      <c r="D658" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E658" s="3">
+        <v>45</v>
+      </c>
+      <c r="F658" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B659" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47372685185185232</v>
+      </c>
+      <c r="C659" t="s">
+        <v>6</v>
+      </c>
+      <c r="D659" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E659" s="3">
+        <v>47</v>
+      </c>
+      <c r="F659" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B660" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47418981481481531</v>
+      </c>
+      <c r="C660" t="s">
+        <v>6</v>
+      </c>
+      <c r="D660" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E660" s="3">
+        <v>51</v>
+      </c>
+      <c r="F660" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B661" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47453703703703753</v>
+      </c>
+      <c r="C661" t="s">
+        <v>6</v>
+      </c>
+      <c r="D661" s="2">
+        <v>0.468518518518519</v>
+      </c>
+      <c r="E661" s="3">
+        <v>54</v>
+      </c>
+      <c r="F661" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B662" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47616898148148146</v>
+      </c>
+      <c r="C662" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E662" s="3">
+        <v>8</v>
+      </c>
+      <c r="F662" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B663" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47628472222222218</v>
+      </c>
+      <c r="C663" t="s">
+        <v>6</v>
+      </c>
+      <c r="D663" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E663" s="3">
+        <v>9</v>
+      </c>
+      <c r="F663" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B664" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4766319444444444</v>
+      </c>
+      <c r="C664" t="s">
+        <v>6</v>
+      </c>
+      <c r="D664" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E664" s="3">
+        <v>12</v>
+      </c>
+      <c r="F664" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B665" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4770949074074074</v>
+      </c>
+      <c r="C665" t="s">
+        <v>6</v>
+      </c>
+      <c r="D665" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E665" s="3">
+        <v>16</v>
+      </c>
+      <c r="F665" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B666" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47755787037037034</v>
+      </c>
+      <c r="C666" t="s">
+        <v>6</v>
+      </c>
+      <c r="D666" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E666" s="3">
+        <v>20</v>
+      </c>
+      <c r="F666" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B667" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47767361111111106</v>
+      </c>
+      <c r="C667" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E667" s="3">
+        <v>21</v>
+      </c>
+      <c r="F667" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B668" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47778935185185184</v>
+      </c>
+      <c r="C668" t="s">
+        <v>6</v>
+      </c>
+      <c r="D668" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E668" s="3">
+        <v>22</v>
+      </c>
+      <c r="F668" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B669" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47813657407407406</v>
+      </c>
+      <c r="C669" t="s">
+        <v>6</v>
+      </c>
+      <c r="D669" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E669" s="3">
+        <v>25</v>
+      </c>
+      <c r="F669" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B670" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47848379629629628</v>
+      </c>
+      <c r="C670" t="s">
+        <v>6</v>
+      </c>
+      <c r="D670" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E670" s="3">
+        <v>28</v>
+      </c>
+      <c r="F670" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B671" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4788310185185185</v>
+      </c>
+      <c r="C671" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E671" s="3">
+        <v>31</v>
+      </c>
+      <c r="F671" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B672" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47929398148148145</v>
+      </c>
+      <c r="C672" t="s">
+        <v>6</v>
+      </c>
+      <c r="D672" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E672" s="3">
+        <v>35</v>
+      </c>
+      <c r="F672" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B673" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47952546296296295</v>
+      </c>
+      <c r="C673" t="s">
+        <v>6</v>
+      </c>
+      <c r="D673" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E673" s="3">
+        <v>37</v>
+      </c>
+      <c r="F673" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B674" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47964120370370367</v>
+      </c>
+      <c r="C674" t="s">
+        <v>6</v>
+      </c>
+      <c r="D674" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E674" s="3">
+        <v>38</v>
+      </c>
+      <c r="F674" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B675" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48033564814814811</v>
+      </c>
+      <c r="C675" t="s">
+        <v>6</v>
+      </c>
+      <c r="D675" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E675" s="3">
+        <v>44</v>
+      </c>
+      <c r="F675" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B676" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48045138888888889</v>
+      </c>
+      <c r="C676" t="s">
+        <v>6</v>
+      </c>
+      <c r="D676" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E676" s="3">
+        <v>45</v>
+      </c>
+      <c r="F676" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B677" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48079861111111111</v>
+      </c>
+      <c r="C677" t="s">
+        <v>6</v>
+      </c>
+      <c r="D677" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E677" s="3">
+        <v>48</v>
+      </c>
+      <c r="F677" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B678" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48114583333333333</v>
+      </c>
+      <c r="C678" t="s">
+        <v>6</v>
+      </c>
+      <c r="D678" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E678" s="3">
+        <v>51</v>
+      </c>
+      <c r="F678" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B679" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48137731481481477</v>
+      </c>
+      <c r="C679" t="s">
+        <v>6</v>
+      </c>
+      <c r="D679" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E679" s="3">
+        <v>53</v>
+      </c>
+      <c r="F679" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B680" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48172453703703699</v>
+      </c>
+      <c r="C680" t="s">
+        <v>6</v>
+      </c>
+      <c r="D680" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E680" s="3">
+        <v>56</v>
+      </c>
+      <c r="F680" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B681" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48207175925925921</v>
+      </c>
+      <c r="C681" t="s">
+        <v>6</v>
+      </c>
+      <c r="D681" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E681" s="3">
+        <v>59</v>
+      </c>
+      <c r="F681" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B682" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48241898148148143</v>
+      </c>
+      <c r="C682" t="s">
+        <v>6</v>
+      </c>
+      <c r="D682" s="2">
+        <v>0.47547453703703701</v>
+      </c>
+      <c r="E682" s="3">
+        <v>62</v>
+      </c>
+      <c r="F682" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B683" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48241898148148149</v>
+      </c>
+      <c r="C683" t="s">
+        <v>6</v>
+      </c>
+      <c r="D683" s="2">
+        <v>0.48241898148148149</v>
+      </c>
+      <c r="E683" s="3">
+        <v>2</v>
+      </c>
+      <c r="F683" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B684" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48276620370370371</v>
+      </c>
+      <c r="C684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684" s="2">
+        <v>0.48241898148148149</v>
+      </c>
+      <c r="E684" s="3">
+        <v>5</v>
+      </c>
+      <c r="F684" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B685" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48288194444444393</v>
+      </c>
+      <c r="C685" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E685" s="3">
+        <v>6</v>
+      </c>
+      <c r="F685" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B686" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48299768518518471</v>
+      </c>
+      <c r="C686" t="s">
+        <v>6</v>
+      </c>
+      <c r="D686" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E686" s="3">
+        <v>7</v>
+      </c>
+      <c r="F686" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B687" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48369212962962915</v>
+      </c>
+      <c r="C687" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E687" s="3">
+        <v>13</v>
+      </c>
+      <c r="F687" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B688" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4841550925925921</v>
+      </c>
+      <c r="C688" t="s">
+        <v>6</v>
+      </c>
+      <c r="D688" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E688" s="3">
+        <v>17</v>
+      </c>
+      <c r="F688" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B689" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48461805555555504</v>
+      </c>
+      <c r="C689" t="s">
+        <v>6</v>
+      </c>
+      <c r="D689" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E689" s="3">
+        <v>21</v>
+      </c>
+      <c r="F689" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B690" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48496527777777726</v>
+      </c>
+      <c r="C690" t="s">
+        <v>6</v>
+      </c>
+      <c r="D690" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E690" s="3">
+        <v>24</v>
+      </c>
+      <c r="F690" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B691" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48542824074074026</v>
+      </c>
+      <c r="C691" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E691" s="3">
+        <v>28</v>
+      </c>
+      <c r="F691" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B692" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4858912037037032</v>
+      </c>
+      <c r="C692" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E692" s="3">
+        <v>32</v>
+      </c>
+      <c r="F692" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B693" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48623842592592542</v>
+      </c>
+      <c r="C693" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E693" s="3">
+        <v>35</v>
+      </c>
+      <c r="F693" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B694" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48646990740740692</v>
+      </c>
+      <c r="C694" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E694" s="3">
+        <v>37</v>
+      </c>
+      <c r="F694" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B695" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48681712962962914</v>
+      </c>
+      <c r="C695" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E695" s="3">
+        <v>40</v>
+      </c>
+      <c r="F695" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B696" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48716435185185136</v>
+      </c>
+      <c r="C696" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E696" s="3">
+        <v>43</v>
+      </c>
+      <c r="F696" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B697" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48774305555555508</v>
+      </c>
+      <c r="C697" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E697" s="3">
+        <v>48</v>
+      </c>
+      <c r="F697" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B698" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4880902777777773</v>
+      </c>
+      <c r="C698" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E698" s="3">
+        <v>51</v>
+      </c>
+      <c r="F698" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B699" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48855324074074025</v>
+      </c>
+      <c r="C699" t="s">
+        <v>6</v>
+      </c>
+      <c r="D699" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E699" s="3">
+        <v>55</v>
+      </c>
+      <c r="F699" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B700" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48913194444444397</v>
+      </c>
+      <c r="C700" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700" s="2">
+        <v>0.48241898148148099</v>
+      </c>
+      <c r="E700" s="3">
+        <v>60</v>
+      </c>
+      <c r="F700" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B701" s="2">
+        <f t="shared" si="10"/>
+        <v>0.50373842592592599</v>
+      </c>
+      <c r="C701" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E701" s="3">
+        <v>6</v>
+      </c>
+      <c r="F701" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B702" s="2">
+        <f t="shared" si="10"/>
+        <v>0.50408564814814816</v>
+      </c>
+      <c r="C702" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E702" s="3">
+        <v>9</v>
+      </c>
+      <c r="F702" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B703" s="2">
+        <f t="shared" si="10"/>
+        <v>0.50454861111111116</v>
+      </c>
+      <c r="C703" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E703" s="3">
+        <v>13</v>
+      </c>
+      <c r="F703" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B704" s="2">
+        <f t="shared" si="10"/>
+        <v>0.50559027777777776</v>
+      </c>
+      <c r="C704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E704" s="3">
+        <v>22</v>
+      </c>
+      <c r="F704" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B705" s="2">
+        <f t="shared" si="10"/>
+        <v>0.5067476851851852</v>
+      </c>
+      <c r="C705" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E705" s="3">
+        <v>32</v>
+      </c>
+      <c r="F705" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B706" s="2">
+        <f t="shared" si="10"/>
+        <v>0.50709490740740748</v>
+      </c>
+      <c r="C706" t="s">
+        <v>6</v>
+      </c>
+      <c r="D706" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E706" s="3">
+        <v>35</v>
+      </c>
+      <c r="F706" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B707" s="2">
+        <f t="shared" ref="B707:B770" si="11">D707+$G$2*(E707-2)</f>
+        <v>0.50767361111111109</v>
+      </c>
+      <c r="C707" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E707" s="3">
+        <v>40</v>
+      </c>
+      <c r="F707" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B708" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50790509259259264</v>
+      </c>
+      <c r="C708" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E708" s="3">
+        <v>42</v>
+      </c>
+      <c r="F708" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B709" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50848379629629636</v>
+      </c>
+      <c r="C709" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E709" s="3">
+        <v>47</v>
+      </c>
+      <c r="F709" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B710" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50883101851851853</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E710" s="3">
+        <v>50</v>
+      </c>
+      <c r="F710" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B711" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50894675925925925</v>
+      </c>
+      <c r="C711" t="s">
+        <v>6</v>
+      </c>
+      <c r="D711" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E711" s="3">
+        <v>51</v>
+      </c>
+      <c r="F711" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B712" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50952546296296297</v>
+      </c>
+      <c r="C712" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E712" s="3">
+        <v>56</v>
+      </c>
+      <c r="F712" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B713" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50964120370370369</v>
+      </c>
+      <c r="C713" t="s">
+        <v>6</v>
+      </c>
+      <c r="D713" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E713" s="3">
+        <v>57</v>
+      </c>
+      <c r="F713" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B714" s="2">
+        <f t="shared" si="11"/>
+        <v>0.50998842592592597</v>
+      </c>
+      <c r="C714" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E714" s="3">
+        <v>60</v>
+      </c>
+      <c r="F714" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B715" s="2">
+        <f t="shared" si="11"/>
+        <v>0.51021990740740741</v>
+      </c>
+      <c r="C715" t="s">
+        <v>6</v>
+      </c>
+      <c r="D715" s="2">
+        <v>0.50327546296296299</v>
+      </c>
+      <c r="E715" s="3">
+        <v>62</v>
+      </c>
+      <c r="F715" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B716" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="C716" t="s">
+        <v>6</v>
+      </c>
+      <c r="D716" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E716" s="3">
+        <v>2</v>
+      </c>
+      <c r="F716" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B717" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54545138888888889</v>
+      </c>
+      <c r="C717" t="s">
+        <v>6</v>
+      </c>
+      <c r="D717" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E717" s="3">
+        <v>6</v>
+      </c>
+      <c r="F717" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B718" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54579861111111105</v>
+      </c>
+      <c r="C718" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E718" s="3">
+        <v>9</v>
+      </c>
+      <c r="F718" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B719" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54660879629629622</v>
+      </c>
+      <c r="C719" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E719" s="3">
+        <v>16</v>
+      </c>
+      <c r="F719" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B720" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54765046296296294</v>
+      </c>
+      <c r="C720" t="s">
+        <v>6</v>
+      </c>
+      <c r="D720" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E720" s="3">
+        <v>25</v>
+      </c>
+      <c r="F720" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B721" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54776620370370366</v>
+      </c>
+      <c r="C721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E721" s="3">
+        <v>26</v>
+      </c>
+      <c r="F721" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B722" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54857638888888882</v>
+      </c>
+      <c r="C722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E722" s="3">
+        <v>33</v>
+      </c>
+      <c r="F722" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B723" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54903935185185182</v>
+      </c>
+      <c r="C723" t="s">
+        <v>6</v>
+      </c>
+      <c r="D723" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E723" s="3">
+        <v>37</v>
+      </c>
+      <c r="F723" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B724" s="2">
+        <f t="shared" si="11"/>
+        <v>0.54961805555555554</v>
+      </c>
+      <c r="C724" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E724" s="3">
+        <v>42</v>
+      </c>
+      <c r="F724" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B725" s="2">
+        <f t="shared" si="11"/>
+        <v>0.55077546296296298</v>
+      </c>
+      <c r="C725" t="s">
+        <v>6</v>
+      </c>
+      <c r="D725" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E725" s="3">
+        <v>52</v>
+      </c>
+      <c r="F725" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B726" s="2">
+        <f t="shared" si="11"/>
+        <v>0.55112268518518515</v>
+      </c>
+      <c r="C726" t="s">
+        <v>6</v>
+      </c>
+      <c r="D726" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E726" s="3">
+        <v>55</v>
+      </c>
+      <c r="F726" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B727" s="2">
+        <f t="shared" si="11"/>
+        <v>0.55135416666666659</v>
+      </c>
+      <c r="C727" t="s">
+        <v>6</v>
+      </c>
+      <c r="D727" s="2">
+        <v>0.54498842592592589</v>
+      </c>
+      <c r="E727" s="3">
+        <v>57</v>
+      </c>
+      <c r="F727" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B728" s="2">
+        <f t="shared" si="11"/>
+        <v>0.5590046296296296</v>
+      </c>
+      <c r="C728" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" s="2">
+        <v>0.55888888888888888</v>
+      </c>
+      <c r="E728" s="3">
+        <v>3</v>
+      </c>
+      <c r="F728" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B729" s="2">
+        <f t="shared" si="11"/>
+        <v>0.55981481481481477</v>
+      </c>
+      <c r="C729" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729" s="2">
+        <v>0.55888888888888888</v>
+      </c>
+      <c r="E729" s="3">
+        <v>10</v>
+      </c>
+      <c r="F729" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B730" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56085648148148159</v>
+      </c>
+      <c r="C730" t="s">
+        <v>6</v>
+      </c>
+      <c r="D730" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E730" s="3">
+        <v>19</v>
+      </c>
+      <c r="F730" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B731" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56178240740740748</v>
+      </c>
+      <c r="C731" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E731" s="3">
+        <v>27</v>
+      </c>
+      <c r="F731" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B732" s="2">
+        <f t="shared" si="11"/>
+        <v>0.5623611111111112</v>
+      </c>
+      <c r="C732" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E732" s="3">
+        <v>32</v>
+      </c>
+      <c r="F732" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B733" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56259259259259264</v>
+      </c>
+      <c r="C733" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E733" s="3">
+        <v>34</v>
+      </c>
+      <c r="F733" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B734" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56293981481481492</v>
+      </c>
+      <c r="C734" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E734" s="3">
+        <v>37</v>
+      </c>
+      <c r="F734" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B735" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56328703703703709</v>
+      </c>
+      <c r="C735" t="s">
+        <v>6</v>
+      </c>
+      <c r="D735" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E735" s="3">
+        <v>40</v>
+      </c>
+      <c r="F735" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B736" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56363425925925936</v>
+      </c>
+      <c r="C736" t="s">
+        <v>6</v>
+      </c>
+      <c r="D736" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E736" s="3">
+        <v>43</v>
+      </c>
+      <c r="F736" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B737" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56375000000000008</v>
+      </c>
+      <c r="C737" t="s">
+        <v>6</v>
+      </c>
+      <c r="D737" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E737" s="3">
+        <v>44</v>
+      </c>
+      <c r="F737" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B738" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56456018518518525</v>
+      </c>
+      <c r="C738" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E738" s="3">
+        <v>51</v>
+      </c>
+      <c r="F738" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B739" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56467592592592608</v>
+      </c>
+      <c r="C739" t="s">
+        <v>6</v>
+      </c>
+      <c r="D739" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E739" s="3">
+        <v>52</v>
+      </c>
+      <c r="F739" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B740" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56490740740740752</v>
+      </c>
+      <c r="C740" t="s">
+        <v>6</v>
+      </c>
+      <c r="D740" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E740" s="3">
+        <v>54</v>
+      </c>
+      <c r="F740" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B741" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56525462962962969</v>
+      </c>
+      <c r="C741" t="s">
+        <v>6</v>
+      </c>
+      <c r="D741" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E741" s="3">
+        <v>57</v>
+      </c>
+      <c r="F741" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B742" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56571759259259269</v>
+      </c>
+      <c r="C742" t="s">
+        <v>6</v>
+      </c>
+      <c r="D742" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E742" s="3">
+        <v>61</v>
+      </c>
+      <c r="F742" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B743" s="2">
+        <f t="shared" si="11"/>
+        <v>0.56560185185185197</v>
+      </c>
+      <c r="C743" t="s">
+        <v>6</v>
+      </c>
+      <c r="D743" s="2">
+        <v>0.55888888888888899</v>
+      </c>
+      <c r="E743" s="3">
+        <v>60</v>
+      </c>
+      <c r="F743" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B744" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59410879629629632</v>
+      </c>
+      <c r="C744" t="s">
+        <v>6</v>
+      </c>
+      <c r="D744" s="2">
+        <v>0.59364583333333332</v>
+      </c>
+      <c r="E744" s="3">
+        <v>6</v>
+      </c>
+      <c r="F744" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B745" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59445601851851848</v>
+      </c>
+      <c r="C745" t="s">
+        <v>6</v>
+      </c>
+      <c r="D745" s="2">
+        <v>0.59364583333333332</v>
+      </c>
+      <c r="E745" s="3">
+        <v>9</v>
+      </c>
+      <c r="F745" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B746" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59468750000000004</v>
+      </c>
+      <c r="C746" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" s="2">
+        <v>0.59364583333333332</v>
+      </c>
+      <c r="E746" s="3">
+        <v>11</v>
+      </c>
+      <c r="F746" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B747" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59515046296296259</v>
+      </c>
+      <c r="C747" t="s">
+        <v>6</v>
+      </c>
+      <c r="D747" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E747" s="3">
+        <v>15</v>
+      </c>
+      <c r="F747" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B748" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59561342592592559</v>
+      </c>
+      <c r="C748" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E748" s="3">
+        <v>19</v>
+      </c>
+      <c r="F748" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B749" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59630787037037003</v>
+      </c>
+      <c r="C749" t="s">
+        <v>6</v>
+      </c>
+      <c r="D749" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E749" s="3">
+        <v>25</v>
+      </c>
+      <c r="F749" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B750" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59642361111111075</v>
+      </c>
+      <c r="C750" t="s">
+        <v>6</v>
+      </c>
+      <c r="D750" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E750" s="3">
+        <v>26</v>
+      </c>
+      <c r="F750" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B751" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59688657407407375</v>
+      </c>
+      <c r="C751" t="s">
+        <v>6</v>
+      </c>
+      <c r="D751" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E751" s="3">
+        <v>30</v>
+      </c>
+      <c r="F751" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B752" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59758101851851819</v>
+      </c>
+      <c r="C752" t="s">
+        <v>6</v>
+      </c>
+      <c r="D752" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E752" s="3">
+        <v>36</v>
+      </c>
+      <c r="F752" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B753" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59827546296296263</v>
+      </c>
+      <c r="C753" t="s">
+        <v>6</v>
+      </c>
+      <c r="D753" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E753" s="3">
+        <v>42</v>
+      </c>
+      <c r="F753" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B754" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59850694444444408</v>
+      </c>
+      <c r="C754" t="s">
+        <v>6</v>
+      </c>
+      <c r="D754" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E754" s="3">
+        <v>44</v>
+      </c>
+      <c r="F754" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B755" s="2">
+        <f t="shared" si="11"/>
+        <v>0.59920138888888852</v>
+      </c>
+      <c r="C755" t="s">
+        <v>6</v>
+      </c>
+      <c r="D755" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E755" s="3">
+        <v>50</v>
+      </c>
+      <c r="F755" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B756" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60001157407407368</v>
+      </c>
+      <c r="C756" t="s">
+        <v>6</v>
+      </c>
+      <c r="D756" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E756" s="3">
+        <v>57</v>
+      </c>
+      <c r="F756" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B757" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60047453703703668</v>
+      </c>
+      <c r="C757" t="s">
+        <v>6</v>
+      </c>
+      <c r="D757" s="2">
+        <v>0.59364583333333298</v>
+      </c>
+      <c r="E757" s="3">
+        <v>61</v>
+      </c>
+      <c r="F757" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B758" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60106481481481489</v>
+      </c>
+      <c r="C758" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E758" s="3">
+        <v>6</v>
+      </c>
+      <c r="F758" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B759" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60164351851851861</v>
+      </c>
+      <c r="C759" t="s">
+        <v>6</v>
+      </c>
+      <c r="D759" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E759" s="3">
+        <v>11</v>
+      </c>
+      <c r="F759" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B760" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60222222222222221</v>
+      </c>
+      <c r="C760" t="s">
+        <v>6</v>
+      </c>
+      <c r="D760" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E760" s="3">
+        <v>16</v>
+      </c>
+      <c r="F760" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B761" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60291666666666666</v>
+      </c>
+      <c r="C761" t="s">
+        <v>6</v>
+      </c>
+      <c r="D761" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E761" s="3">
+        <v>22</v>
+      </c>
+      <c r="F761" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B762" s="2">
+        <f t="shared" si="11"/>
+        <v>0.6036111111111111</v>
+      </c>
+      <c r="C762" t="s">
+        <v>6</v>
+      </c>
+      <c r="D762" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E762" s="3">
+        <v>28</v>
+      </c>
+      <c r="F762" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B763" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60418981481481482</v>
+      </c>
+      <c r="C763" t="s">
+        <v>6</v>
+      </c>
+      <c r="D763" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E763" s="3">
+        <v>33</v>
+      </c>
+      <c r="F763" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B764" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60488425925925926</v>
+      </c>
+      <c r="C764" t="s">
+        <v>6</v>
+      </c>
+      <c r="D764" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E764" s="3">
+        <v>39</v>
+      </c>
+      <c r="F764" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B765" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60523148148148154</v>
+      </c>
+      <c r="C765" t="s">
+        <v>6</v>
+      </c>
+      <c r="D765" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E765" s="3">
+        <v>42</v>
+      </c>
+      <c r="F765" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B766" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60592592592592598</v>
+      </c>
+      <c r="C766" t="s">
+        <v>6</v>
+      </c>
+      <c r="D766" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E766" s="3">
+        <v>48</v>
+      </c>
+      <c r="F766" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B767" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60662037037037042</v>
+      </c>
+      <c r="C767" t="s">
+        <v>6</v>
+      </c>
+      <c r="D767" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E767" s="3">
+        <v>54</v>
+      </c>
+      <c r="F767" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B768" s="2">
+        <f t="shared" si="11"/>
+        <v>0.60731481481481486</v>
+      </c>
+      <c r="C768" t="s">
+        <v>6</v>
+      </c>
+      <c r="D768" s="2">
+        <v>0.60060185185185189</v>
+      </c>
+      <c r="E768" s="3">
+        <v>60</v>
+      </c>
+      <c r="F768" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B769" s="2">
+        <f t="shared" si="11"/>
+        <v>0.62851851851851848</v>
+      </c>
+      <c r="C769" t="s">
+        <v>6</v>
+      </c>
+      <c r="D769" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E769" s="3">
+        <v>3</v>
+      </c>
+      <c r="F769" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B770" s="2">
+        <f t="shared" si="11"/>
+        <v>0.62886574074074075</v>
+      </c>
+      <c r="C770" t="s">
+        <v>6</v>
+      </c>
+      <c r="D770" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E770" s="3">
+        <v>6</v>
+      </c>
+      <c r="F770" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B771" s="2">
+        <f t="shared" ref="B771:B834" si="12">D771+$G$2*(E771-2)</f>
+        <v>0.62944444444444447</v>
+      </c>
+      <c r="C771" t="s">
+        <v>6</v>
+      </c>
+      <c r="D771" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E771" s="3">
+        <v>11</v>
+      </c>
+      <c r="F771" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B772" s="2">
+        <f t="shared" si="12"/>
+        <v>0.62990740740740736</v>
+      </c>
+      <c r="C772" t="s">
+        <v>6</v>
+      </c>
+      <c r="D772" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E772" s="3">
+        <v>15</v>
+      </c>
+      <c r="F772" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B773" s="2">
+        <f t="shared" si="12"/>
+        <v>0.6306018518518518</v>
+      </c>
+      <c r="C773" t="s">
+        <v>6</v>
+      </c>
+      <c r="D773" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E773" s="3">
+        <v>21</v>
+      </c>
+      <c r="F773" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B774" s="2">
+        <f t="shared" si="12"/>
+        <v>0.63129629629629624</v>
+      </c>
+      <c r="C774" t="s">
+        <v>6</v>
+      </c>
+      <c r="D774" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E774" s="3">
+        <v>27</v>
+      </c>
+      <c r="F774" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B775" s="2">
+        <f t="shared" si="12"/>
+        <v>0.63164351851851852</v>
+      </c>
+      <c r="C775" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E775" s="3">
+        <v>30</v>
+      </c>
+      <c r="F775" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B776" s="2">
+        <f t="shared" si="12"/>
+        <v>0.63256944444444441</v>
+      </c>
+      <c r="C776" t="s">
+        <v>6</v>
+      </c>
+      <c r="D776" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E776" s="3">
+        <v>38</v>
+      </c>
+      <c r="F776" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B777" s="2">
+        <f t="shared" si="12"/>
+        <v>0.63291666666666668</v>
+      </c>
+      <c r="C777" t="s">
+        <v>6</v>
+      </c>
+      <c r="D777" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E777" s="3">
+        <v>41</v>
+      </c>
+      <c r="F777" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B778" s="2">
+        <f t="shared" si="12"/>
+        <v>0.63314814814814813</v>
+      </c>
+      <c r="C778" t="s">
+        <v>6</v>
+      </c>
+      <c r="D778" s="2">
+        <v>0.62840277777777775</v>
+      </c>
+      <c r="E778" s="3">
+        <v>43</v>
+      </c>
+      <c r="F778" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B779" s="2">
+        <f t="shared" si="12"/>
+        <v>0.65689814814814818</v>
+      </c>
+      <c r="C779" t="s">
+        <v>6</v>
+      </c>
+      <c r="D779" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E779" s="3">
+        <v>8</v>
+      </c>
+      <c r="F779" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B780" s="2">
+        <f t="shared" si="12"/>
+        <v>0.65759259259259262</v>
+      </c>
+      <c r="C780" t="s">
+        <v>6</v>
+      </c>
+      <c r="D780" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E780" s="3">
+        <v>14</v>
+      </c>
+      <c r="F780" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B781" s="2">
+        <f t="shared" si="12"/>
+        <v>0.65782407407407406</v>
+      </c>
+      <c r="C781" t="s">
+        <v>6</v>
+      </c>
+      <c r="D781" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E781" s="3">
+        <v>16</v>
+      </c>
+      <c r="F781" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B782" s="2">
+        <f t="shared" si="12"/>
+        <v>0.65828703703703706</v>
+      </c>
+      <c r="C782" t="s">
+        <v>6</v>
+      </c>
+      <c r="D782" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E782" s="3">
+        <v>20</v>
+      </c>
+      <c r="F782" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B783" s="2">
+        <f t="shared" si="12"/>
+        <v>0.6585185185185185</v>
+      </c>
+      <c r="C783" t="s">
+        <v>6</v>
+      </c>
+      <c r="D783" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E783" s="3">
+        <v>22</v>
+      </c>
+      <c r="F783" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B784" s="2">
+        <f t="shared" si="12"/>
+        <v>0.65886574074074078</v>
+      </c>
+      <c r="C784" t="s">
+        <v>6</v>
+      </c>
+      <c r="D784" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E784" s="3">
+        <v>25</v>
+      </c>
+      <c r="F784" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B785" s="2">
+        <f t="shared" si="12"/>
+        <v>0.6594444444444445</v>
+      </c>
+      <c r="C785" t="s">
+        <v>6</v>
+      </c>
+      <c r="D785" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E785" s="3">
+        <v>30</v>
+      </c>
+      <c r="F785" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B786" s="2">
+        <f t="shared" si="12"/>
+        <v>0.65990740740740739</v>
+      </c>
+      <c r="C786" t="s">
+        <v>6</v>
+      </c>
+      <c r="D786" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E786" s="3">
+        <v>34</v>
+      </c>
+      <c r="F786" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B787" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66060185185185183</v>
+      </c>
+      <c r="C787" t="s">
+        <v>6</v>
+      </c>
+      <c r="D787" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E787" s="3">
+        <v>40</v>
+      </c>
+      <c r="F787" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B788" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66129629629629627</v>
+      </c>
+      <c r="C788" t="s">
+        <v>6</v>
+      </c>
+      <c r="D788" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E788" s="3">
+        <v>46</v>
+      </c>
+      <c r="F788" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B789" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66152777777777783</v>
+      </c>
+      <c r="C789" t="s">
+        <v>6</v>
+      </c>
+      <c r="D789" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E789" s="3">
+        <v>48</v>
+      </c>
+      <c r="F789" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B790" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66222222222222227</v>
+      </c>
+      <c r="C790" t="s">
+        <v>6</v>
+      </c>
+      <c r="D790" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E790" s="3">
+        <v>54</v>
+      </c>
+      <c r="F790" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B791" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66268518518518527</v>
+      </c>
+      <c r="C791" t="s">
+        <v>6</v>
+      </c>
+      <c r="D791" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E791" s="3">
+        <v>58</v>
+      </c>
+      <c r="F791" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B792" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66291666666666671</v>
+      </c>
+      <c r="C792" t="s">
+        <v>6</v>
+      </c>
+      <c r="D792" s="2">
+        <v>0.65620370370370373</v>
+      </c>
+      <c r="E792" s="3">
+        <v>60</v>
+      </c>
+      <c r="F792" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B793" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66373842592592591</v>
+      </c>
+      <c r="C793" t="s">
+        <v>6</v>
+      </c>
+      <c r="D793" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E793" s="3">
+        <v>7</v>
+      </c>
+      <c r="F793" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B794" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66408564814814808</v>
+      </c>
+      <c r="C794" t="s">
+        <v>6</v>
+      </c>
+      <c r="D794" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E794" s="3">
+        <v>10</v>
+      </c>
+      <c r="F794" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B795" s="2">
+        <f t="shared" si="12"/>
+        <v>0.6646643518518518</v>
+      </c>
+      <c r="C795" t="s">
+        <v>6</v>
+      </c>
+      <c r="D795" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E795" s="3">
+        <v>15</v>
+      </c>
+      <c r="F795" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B796" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66524305555555552</v>
+      </c>
+      <c r="C796" t="s">
+        <v>6</v>
+      </c>
+      <c r="D796" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E796" s="3">
+        <v>20</v>
+      </c>
+      <c r="F796" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B797" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66605324074074068</v>
+      </c>
+      <c r="C797" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E797" s="3">
+        <v>27</v>
+      </c>
+      <c r="F797" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B798" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66686342592592585</v>
+      </c>
+      <c r="C798" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E798" s="3">
+        <v>34</v>
+      </c>
+      <c r="F798" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B799" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66755787037037029</v>
+      </c>
+      <c r="C799" t="s">
+        <v>6</v>
+      </c>
+      <c r="D799" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E799" s="3">
+        <v>40</v>
+      </c>
+      <c r="F799" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B800" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66802083333333329</v>
+      </c>
+      <c r="C800" t="s">
+        <v>6</v>
+      </c>
+      <c r="D800" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E800" s="3">
+        <v>44</v>
+      </c>
+      <c r="F800" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B801" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66871527777777773</v>
+      </c>
+      <c r="C801" t="s">
+        <v>6</v>
+      </c>
+      <c r="D801" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E801" s="3">
+        <v>50</v>
+      </c>
+      <c r="F801" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B802" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66940972222222217</v>
+      </c>
+      <c r="C802" t="s">
+        <v>6</v>
+      </c>
+      <c r="D802" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E802" s="3">
+        <v>56</v>
+      </c>
+      <c r="F802" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B803" s="2">
+        <f t="shared" si="12"/>
+        <v>0.66975694444444445</v>
+      </c>
+      <c r="C803" t="s">
+        <v>6</v>
+      </c>
+      <c r="D803" s="2">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="E803" s="3">
+        <v>59</v>
+      </c>
+      <c r="F803" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B804" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74020833333333336</v>
+      </c>
+      <c r="C804" t="s">
+        <v>6</v>
+      </c>
+      <c r="D804" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E804" s="3">
+        <v>7</v>
+      </c>
+      <c r="F804" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B805" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74055555555555552</v>
+      </c>
+      <c r="C805" t="s">
+        <v>6</v>
+      </c>
+      <c r="D805" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E805" s="3">
+        <v>10</v>
+      </c>
+      <c r="F805" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B806" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74124999999999996</v>
+      </c>
+      <c r="C806" t="s">
+        <v>6</v>
+      </c>
+      <c r="D806" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E806" s="3">
+        <v>16</v>
+      </c>
+      <c r="F806" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B807" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74171296296296296</v>
+      </c>
+      <c r="C807" t="s">
+        <v>6</v>
+      </c>
+      <c r="D807" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E807" s="3">
+        <v>20</v>
+      </c>
+      <c r="F807" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B808" s="2">
+        <f t="shared" si="12"/>
+        <v>0.7424074074074074</v>
+      </c>
+      <c r="C808" t="s">
+        <v>6</v>
+      </c>
+      <c r="D808" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E808" s="3">
+        <v>26</v>
+      </c>
+      <c r="F808" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B809" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74310185185185185</v>
+      </c>
+      <c r="C809" t="s">
+        <v>6</v>
+      </c>
+      <c r="D809" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E809" s="3">
+        <v>32</v>
+      </c>
+      <c r="F809" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B810" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74379629629629629</v>
+      </c>
+      <c r="C810" t="s">
+        <v>6</v>
+      </c>
+      <c r="D810" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E810" s="3">
+        <v>38</v>
+      </c>
+      <c r="F810" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B811" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74437500000000001</v>
+      </c>
+      <c r="C811" t="s">
+        <v>6</v>
+      </c>
+      <c r="D811" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E811" s="3">
+        <v>43</v>
+      </c>
+      <c r="F811" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B812" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74449074074074073</v>
+      </c>
+      <c r="C812" t="s">
+        <v>6</v>
+      </c>
+      <c r="D812" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E812" s="3">
+        <v>44</v>
+      </c>
+      <c r="F812" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B813" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74541666666666673</v>
+      </c>
+      <c r="C813" t="s">
+        <v>6</v>
+      </c>
+      <c r="D813" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E813" s="3">
+        <v>52</v>
+      </c>
+      <c r="F813" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B814" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74622685185185189</v>
+      </c>
+      <c r="C814" t="s">
+        <v>6</v>
+      </c>
+      <c r="D814" s="2">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="E814" s="3">
+        <v>59</v>
+      </c>
+      <c r="F814" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B815" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74703703703703717</v>
+      </c>
+      <c r="C815" t="s">
+        <v>6</v>
+      </c>
+      <c r="D815" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E815" s="3">
+        <v>6</v>
+      </c>
+      <c r="F815" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B816" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74773148148148161</v>
+      </c>
+      <c r="C816" t="s">
+        <v>6</v>
+      </c>
+      <c r="D816" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E816" s="3">
+        <v>12</v>
+      </c>
+      <c r="F816" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B817" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74842592592592605</v>
+      </c>
+      <c r="C817" t="s">
+        <v>6</v>
+      </c>
+      <c r="D817" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E817" s="3">
+        <v>18</v>
+      </c>
+      <c r="F817" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B818" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74912037037037049</v>
+      </c>
+      <c r="C818" t="s">
+        <v>6</v>
+      </c>
+      <c r="D818" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E818" s="3">
+        <v>24</v>
+      </c>
+      <c r="F818" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B819" s="2">
+        <f t="shared" si="12"/>
+        <v>0.74981481481481493</v>
+      </c>
+      <c r="C819" t="s">
+        <v>6</v>
+      </c>
+      <c r="D819" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E819" s="3">
+        <v>30</v>
+      </c>
+      <c r="F819" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B820" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75004629629629638</v>
+      </c>
+      <c r="C820" t="s">
+        <v>6</v>
+      </c>
+      <c r="D820" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E820" s="3">
+        <v>32</v>
+      </c>
+      <c r="F820" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B821" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75074074074074082</v>
+      </c>
+      <c r="C821" t="s">
+        <v>6</v>
+      </c>
+      <c r="D821" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E821" s="3">
+        <v>38</v>
+      </c>
+      <c r="F821" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B822" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75131944444444454</v>
+      </c>
+      <c r="C822" t="s">
+        <v>6</v>
+      </c>
+      <c r="D822" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E822" s="3">
+        <v>43</v>
+      </c>
+      <c r="F822" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B823" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75201388888888898</v>
+      </c>
+      <c r="C823" t="s">
+        <v>6</v>
+      </c>
+      <c r="D823" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E823" s="3">
+        <v>49</v>
+      </c>
+      <c r="F823" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B824" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75270833333333342</v>
+      </c>
+      <c r="C824" t="s">
+        <v>6</v>
+      </c>
+      <c r="D824" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E824" s="3">
+        <v>55</v>
+      </c>
+      <c r="F824" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B825" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75351851851851859</v>
+      </c>
+      <c r="C825" t="s">
+        <v>6</v>
+      </c>
+      <c r="D825" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E825" s="3">
+        <v>62</v>
+      </c>
+      <c r="F825" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B826" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75410879629629635</v>
+      </c>
+      <c r="C826" t="s">
+        <v>6</v>
+      </c>
+      <c r="D826" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E826" s="3">
+        <v>7</v>
+      </c>
+      <c r="F826" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B827" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75434027777777779</v>
+      </c>
+      <c r="C827" t="s">
+        <v>6</v>
+      </c>
+      <c r="D827" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E827" s="3">
+        <v>9</v>
+      </c>
+      <c r="F827" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B828" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75503472222222223</v>
+      </c>
+      <c r="C828" t="s">
+        <v>6</v>
+      </c>
+      <c r="D828" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E828" s="3">
+        <v>15</v>
+      </c>
+      <c r="F828" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B829" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75572916666666667</v>
+      </c>
+      <c r="C829" t="s">
+        <v>6</v>
+      </c>
+      <c r="D829" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E829" s="3">
+        <v>21</v>
+      </c>
+      <c r="F829" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B830" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75642361111111112</v>
+      </c>
+      <c r="C830" t="s">
+        <v>6</v>
+      </c>
+      <c r="D830" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E830" s="3">
+        <v>27</v>
+      </c>
+      <c r="F830" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B831" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75734953703703711</v>
+      </c>
+      <c r="C831" t="s">
+        <v>6</v>
+      </c>
+      <c r="D831" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E831" s="3">
+        <v>35</v>
+      </c>
+      <c r="F831" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B832" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75815972222222228</v>
+      </c>
+      <c r="C832" t="s">
+        <v>6</v>
+      </c>
+      <c r="D832" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E832" s="3">
+        <v>42</v>
+      </c>
+      <c r="F832" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B833" s="2">
+        <f t="shared" si="12"/>
+        <v>0.758275462962963</v>
+      </c>
+      <c r="C833" t="s">
+        <v>6</v>
+      </c>
+      <c r="D833" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E833" s="3">
+        <v>43</v>
+      </c>
+      <c r="F833" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B834" s="2">
+        <f t="shared" si="12"/>
+        <v>0.75896990740740744</v>
+      </c>
+      <c r="C834" t="s">
+        <v>6</v>
+      </c>
+      <c r="D834" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E834" s="3">
+        <v>49</v>
+      </c>
+      <c r="F834" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B835" s="2">
+        <f t="shared" ref="B835:B862" si="13">D835+$G$2*(E835-2)</f>
+        <v>0.75966435185185188</v>
+      </c>
+      <c r="C835" t="s">
+        <v>6</v>
+      </c>
+      <c r="D835" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E835" s="3">
+        <v>55</v>
+      </c>
+      <c r="F835" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B836" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75989583333333333</v>
+      </c>
+      <c r="C836" t="s">
+        <v>6</v>
+      </c>
+      <c r="D836" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E836" s="3">
+        <v>57</v>
+      </c>
+      <c r="F836" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B837" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76035879629629632</v>
+      </c>
+      <c r="C837" t="s">
+        <v>6</v>
+      </c>
+      <c r="D837" s="2">
+        <v>0.75353009259259263</v>
+      </c>
+      <c r="E837" s="3">
+        <v>61</v>
+      </c>
+      <c r="F837" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B838" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76812499999999995</v>
+      </c>
+      <c r="C838" t="s">
+        <v>6</v>
+      </c>
+      <c r="D838" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E838" s="3">
+        <v>8</v>
+      </c>
+      <c r="F838" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B839" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76870370370370367</v>
+      </c>
+      <c r="C839" t="s">
+        <v>6</v>
+      </c>
+      <c r="D839" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E839" s="3">
+        <v>13</v>
+      </c>
+      <c r="F839" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B840" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76928240740740739</v>
+      </c>
+      <c r="C840" t="s">
+        <v>6</v>
+      </c>
+      <c r="D840" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E840" s="3">
+        <v>18</v>
+      </c>
+      <c r="F840" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B841" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76974537037037027</v>
+      </c>
+      <c r="C841" t="s">
+        <v>6</v>
+      </c>
+      <c r="D841" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E841" s="3">
+        <v>22</v>
+      </c>
+      <c r="F841" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B842" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77020833333333327</v>
+      </c>
+      <c r="C842" t="s">
+        <v>6</v>
+      </c>
+      <c r="D842" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E842" s="3">
+        <v>26</v>
+      </c>
+      <c r="F842" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B843" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="C843" t="s">
+        <v>6</v>
+      </c>
+      <c r="D843" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E843" s="3">
+        <v>35</v>
+      </c>
+      <c r="F843" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B844" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77240740740740732</v>
+      </c>
+      <c r="C844" t="s">
+        <v>6</v>
+      </c>
+      <c r="D844" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E844" s="3">
+        <v>45</v>
+      </c>
+      <c r="F844" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B845" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77310185185185176</v>
+      </c>
+      <c r="C845" t="s">
+        <v>6</v>
+      </c>
+      <c r="D845" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E845" s="3">
+        <v>51</v>
+      </c>
+      <c r="F845" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B846" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77414351851851848</v>
+      </c>
+      <c r="C846" t="s">
+        <v>6</v>
+      </c>
+      <c r="D846" s="2">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="E846" s="3">
+        <v>60</v>
+      </c>
+      <c r="F846" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B847" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77450231481481469</v>
+      </c>
+      <c r="C847" t="s">
+        <v>6</v>
+      </c>
+      <c r="D847" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E847" s="3">
+        <v>3</v>
+      </c>
+      <c r="F847" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B848" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77531249999999985</v>
+      </c>
+      <c r="C848" t="s">
+        <v>6</v>
+      </c>
+      <c r="D848" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E848" s="3">
+        <v>10</v>
+      </c>
+      <c r="F848" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B849" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77565972222222213</v>
+      </c>
+      <c r="C849" t="s">
+        <v>6</v>
+      </c>
+      <c r="D849" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E849" s="3">
+        <v>13</v>
+      </c>
+      <c r="F849" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B850" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77600694444444429</v>
+      </c>
+      <c r="C850" t="s">
+        <v>6</v>
+      </c>
+      <c r="D850" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E850" s="3">
+        <v>16</v>
+      </c>
+      <c r="F850" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B851" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77635416666666657</v>
+      </c>
+      <c r="C851" t="s">
+        <v>6</v>
+      </c>
+      <c r="D851" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E851" s="3">
+        <v>19</v>
+      </c>
+      <c r="F851" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B852" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77693287037037029</v>
+      </c>
+      <c r="C852" t="s">
+        <v>6</v>
+      </c>
+      <c r="D852" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E852" s="3">
+        <v>24</v>
+      </c>
+      <c r="F852" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B853" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77739583333333317</v>
+      </c>
+      <c r="C853" t="s">
+        <v>6</v>
+      </c>
+      <c r="D853" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E853" s="3">
+        <v>28</v>
+      </c>
+      <c r="F853" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B854" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77809027777777762</v>
+      </c>
+      <c r="C854" t="s">
+        <v>6</v>
+      </c>
+      <c r="D854" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E854" s="3">
+        <v>34</v>
+      </c>
+      <c r="F854" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B855" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77890046296296289</v>
+      </c>
+      <c r="C855" t="s">
+        <v>6</v>
+      </c>
+      <c r="D855" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E855" s="3">
+        <v>41</v>
+      </c>
+      <c r="F855" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B856" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77901620370370361</v>
+      </c>
+      <c r="C856" t="s">
+        <v>6</v>
+      </c>
+      <c r="D856" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E856" s="3">
+        <v>42</v>
+      </c>
+      <c r="F856" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B857" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77982638888888878</v>
+      </c>
+      <c r="C857" t="s">
+        <v>6</v>
+      </c>
+      <c r="D857" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E857" s="3">
+        <v>49</v>
+      </c>
+      <c r="F857" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B858" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78028935185185178</v>
+      </c>
+      <c r="C858" t="s">
+        <v>6</v>
+      </c>
+      <c r="D858" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E858" s="3">
+        <v>53</v>
+      </c>
+      <c r="F858" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B859" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7804050925925925</v>
+      </c>
+      <c r="C859" t="s">
+        <v>6</v>
+      </c>
+      <c r="D859" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E859" s="3">
+        <v>54</v>
+      </c>
+      <c r="F859" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B860" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78075231481481466</v>
+      </c>
+      <c r="C860" t="s">
+        <v>6</v>
+      </c>
+      <c r="D860" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E860" s="3">
+        <v>57</v>
+      </c>
+      <c r="F860" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B861" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78098379629629622</v>
+      </c>
+      <c r="C861" t="s">
+        <v>6</v>
+      </c>
+      <c r="D861" s="2">
+        <v>0.77438657407407396</v>
+      </c>
+      <c r="E861" s="3">
+        <v>59</v>
+      </c>
+      <c r="F861" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B862" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75317129629629642</v>
+      </c>
+      <c r="C862" t="s">
+        <v>6</v>
+      </c>
+      <c r="D862" s="2">
+        <v>0.74657407407407417</v>
+      </c>
+      <c r="E862" s="3">
+        <v>59</v>
+      </c>
+      <c r="F862" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>